--- a/data/trans_camb/P57_AC_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P57_AC_R-Habitat-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>3.540589538417238</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-15.85687700309433</v>
+        <v>-15.85687700309434</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>-5.505337707403124</v>
@@ -664,7 +664,7 @@
         <v>5.403421584260004</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>-14.80549849890549</v>
+        <v>-14.8054984989055</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-18.47609601734988</v>
+        <v>-18.01532724520996</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.187207768196239</v>
+        <v>-0.8336862086249017</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-21.52460389186949</v>
+        <v>-21.21989990074227</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-10.01771369770251</v>
+        <v>-9.890990916835015</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>2.980517796582757</v>
+        <v>2.851130743527203</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-18.22759347476865</v>
+        <v>-18.82140596060718</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-12.65096701484358</v>
+        <v>-12.7931859093438</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>2.316351230811659</v>
+        <v>2.366924438312813</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-18.7759396306588</v>
+        <v>-18.18982795364666</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-8.158378087138466</v>
+        <v>-8.197494715727204</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>8.058426569875502</v>
+        <v>8.583924363454114</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-10.95547418960722</v>
+        <v>-10.08224161154979</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-0.2780317816243006</v>
+        <v>-0.6217077119125881</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>11.21754095971138</v>
+        <v>11.47405019712206</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-9.107758493514462</v>
+        <v>-9.426787854693714</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>-6.018955251426376</v>
+        <v>-5.842194141175685</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>8.475889010450151</v>
+        <v>8.557328025534463</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-11.57199772086442</v>
+        <v>-11.44512121761643</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.04728439810336301</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.2117678078056887</v>
+        <v>-0.2117678078056889</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>-0.0724744490421449</v>
@@ -769,7 +769,7 @@
         <v>0.07164601537395827</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.1963117177755747</v>
+        <v>-0.1963117177755749</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.2409060888263643</v>
+        <v>-0.2361231468650077</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.01480447106763951</v>
+        <v>-0.01011318224775066</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.278302630462396</v>
+        <v>-0.2773943222483518</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1282645413054989</v>
+        <v>-0.1290947195870494</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.0382306605909686</v>
+        <v>0.03661185375288489</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.2344940086380475</v>
+        <v>-0.2390013264094037</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1634513280175396</v>
+        <v>-0.1658278835455861</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.02988077018417735</v>
+        <v>0.03018612558759202</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.2418042352330656</v>
+        <v>-0.2369403817573754</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.1133557983551272</v>
+        <v>-0.113300896420647</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.1108721969926228</v>
+        <v>0.1196464296497615</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.1515171020097977</v>
+        <v>-0.1397141500977198</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-0.003639966752785977</v>
+        <v>-0.008273065810287649</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1526516081373343</v>
+        <v>0.156511780241627</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.1260130521511423</v>
+        <v>-0.1284079742880023</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.08104972949524165</v>
+        <v>-0.07890136785588366</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1148121305656459</v>
+        <v>0.1156633029811481</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.155668332056639</v>
+        <v>-0.1560437042136535</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>8.987377075534386</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-2.877781599538431</v>
+        <v>-2.877781599538443</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.293603889378502</v>
@@ -869,7 +869,7 @@
         <v>10.36663445594007</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-5.340781429030428</v>
+        <v>-5.340781429030416</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>-0.6427975319328594</v>
@@ -878,7 +878,7 @@
         <v>9.70258549481191</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-4.104660363943802</v>
+        <v>-4.104660363943791</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-6.466845108763014</v>
+        <v>-6.201433378692443</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>5.006867462474117</v>
+        <v>4.662466116051747</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-7.486918984659176</v>
+        <v>-7.417708735180435</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.849794004872865</v>
+        <v>-4.060951924762677</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>6.546619189482591</v>
+        <v>6.429666505135266</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-9.505015305878239</v>
+        <v>-8.990846155602785</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-3.607519281273003</v>
+        <v>-3.601905734810123</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>7.191133012890013</v>
+        <v>7.126275173027835</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-7.126715252396765</v>
+        <v>-7.139267801774747</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.4438322919091</v>
+        <v>2.646659853729757</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>12.86887336779175</v>
+        <v>13.13502116221708</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.514852151529409</v>
+        <v>1.769551735100541</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.981984203163646</v>
+        <v>4.206830394846625</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>14.25776745811381</v>
+        <v>14.02061787611238</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-1.631626066275098</v>
+        <v>-1.489843454691949</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.184002835994345</v>
+        <v>2.433300355803623</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>12.49026239027449</v>
+        <v>12.51378070587969</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-1.123596678711735</v>
+        <v>-1.08303749963816</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.1330246377813975</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.04259483625480446</v>
+        <v>-0.04259483625480463</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.004037275947582715</v>
@@ -974,7 +974,7 @@
         <v>0.142549078743279</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.0734397914495059</v>
+        <v>-0.07343979144950574</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.009163024090789604</v>
@@ -983,7 +983,7 @@
         <v>0.1383095301635251</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.05851158402278182</v>
+        <v>-0.05851158402278166</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.09222814720297964</v>
+        <v>-0.08868537225241326</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.07255435769205495</v>
+        <v>0.06637801608711798</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.1067308025431697</v>
+        <v>-0.1058849100883126</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.05190615933465163</v>
+        <v>-0.05443689939428346</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.08660135938953341</v>
+        <v>0.08617124736189438</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1269796677116746</v>
+        <v>-0.1214508945219268</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.0500400323687387</v>
+        <v>-0.05067591791616288</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.09947353869415769</v>
+        <v>0.09963594235394328</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.09896769822865258</v>
+        <v>-0.09960242090015749</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.0372665978934116</v>
+        <v>0.04072382274046166</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.1997563383380363</v>
+        <v>0.2016380137160024</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.02295598570217745</v>
+        <v>0.02776362009177169</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.05640318814525862</v>
+        <v>0.05935968862672739</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.202575889462534</v>
+        <v>0.1977397142677337</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.02357748317807024</v>
+        <v>-0.02155383338132</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.03131766932312195</v>
+        <v>0.03572079813380694</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1821411543843509</v>
+        <v>0.1817705611119733</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.01636916086240038</v>
+        <v>-0.01556771427288993</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>21.81183172309697</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3.443676296891707</v>
+        <v>3.443676296891696</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>2.881787003528968</v>
@@ -1083,7 +1083,7 @@
         <v>18.56773223165933</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-0.5737686757345983</v>
+        <v>-0.5737686757345761</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>2.345487369579125</v>
@@ -1092,7 +1092,7 @@
         <v>20.18437612700687</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>1.426599645645488</v>
+        <v>1.426599645645499</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-3.671287621386651</v>
+        <v>-3.727893512821477</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>17.3256877939799</v>
+        <v>17.06432434007389</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.939566329520661</v>
+        <v>-2.043825191186712</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.773393581393422</v>
+        <v>-1.699073060036881</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>14.32449223738765</v>
+        <v>14.24993713731509</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-5.46452666979734</v>
+        <v>-5.166933603744852</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-1.45125585066645</v>
+        <v>-1.346790715953115</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>17.01525977411413</v>
+        <v>16.75168141627657</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-2.05648752241818</v>
+        <v>-1.957856332068544</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>7.203498445311103</v>
+        <v>7.151619691910193</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>26.38364305278155</v>
+        <v>26.80265251723285</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>9.912412412633795</v>
+        <v>9.273928621375893</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8.325629001698381</v>
+        <v>7.875843808108283</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>22.97410483190301</v>
+        <v>23.01930542890761</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>4.541016775153206</v>
+        <v>4.422619437827372</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>5.858003867377442</v>
+        <v>5.989321674595496</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>23.57792803489093</v>
+        <v>23.51579213860595</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>4.940452197462345</v>
+        <v>5.557097456495333</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.3528746867152762</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.05571224873918772</v>
+        <v>0.05571224873918754</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.04418888677754867</v>
@@ -1188,7 +1188,7 @@
         <v>0.2847148024111031</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.008798082237685178</v>
+        <v>-0.008798082237684836</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.03692507638780534</v>
@@ -1197,7 +1197,7 @@
         <v>0.3177632248190968</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.02245900002425854</v>
+        <v>0.02245900002425872</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.05629654884671813</v>
+        <v>-0.05724025315011639</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.2683619255458661</v>
+        <v>0.2661655018695567</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.02894741842873026</v>
+        <v>-0.03211873451415173</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.02650574439380738</v>
+        <v>-0.02613329531729305</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.2113483527733953</v>
+        <v>0.2065689297929185</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.08054043277145316</v>
+        <v>-0.07705061111626893</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.02245763030229491</v>
+        <v>-0.02048379607919105</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.2586387340935374</v>
+        <v>0.2544741583364636</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.03174349743582368</v>
+        <v>-0.02998138555949722</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.1191533632279278</v>
+        <v>0.1222795224935915</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.4525088421159263</v>
+        <v>0.4644483238139821</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.1684091950388812</v>
+        <v>0.1589268925732949</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.1336576674548183</v>
+        <v>0.1261711176357226</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.3699289813371623</v>
+        <v>0.3672623339845692</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.07480350494246769</v>
+        <v>0.06935256003650121</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.09485844143536321</v>
+        <v>0.09777733587920059</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.3830283432114454</v>
+        <v>0.3866116305005712</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.0796455848595029</v>
+        <v>0.09096196966298478</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>10.05778495482134</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-7.974114675269939</v>
+        <v>-7.974114675269927</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>7.445669064359917</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1989996565397016</v>
+        <v>0.5019347860307546</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>6.608820019902555</v>
+        <v>6.787799136160669</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-11.7448730340569</v>
+        <v>-12.26632396072089</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>5.737813187979195</v>
+        <v>6.32711818396411</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>6.12755209337318</v>
+        <v>6.385724425497218</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-12.20752277716003</v>
+        <v>-12.17175349380957</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>4.621981120543377</v>
+        <v>4.936800192610438</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>7.746540224646176</v>
+        <v>7.630787721171088</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-10.42783991310104</v>
+        <v>-10.95185891556463</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>8.941500071160402</v>
+        <v>8.80344690687517</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>14.45308406891252</v>
+        <v>14.6528790146864</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-2.809507805457829</v>
+        <v>-3.023905550559211</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>13.40265486165494</v>
+        <v>13.66649984355859</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>13.87825568485126</v>
+        <v>14.36782198211052</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-3.733087667606255</v>
+        <v>-4.21282546923443</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>10.32886273477317</v>
+        <v>10.22333485323398</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>13.23769971282957</v>
+        <v>13.39351798390488</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-4.402969823799952</v>
+        <v>-4.675445730082445</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>0.1456677629645457</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.1154897874220816</v>
+        <v>-0.1154897874220815</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.108773716250928</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.003797243694679204</v>
+        <v>0.00779812965590162</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.09440259612369956</v>
+        <v>0.09732980531737397</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.1683118283100478</v>
+        <v>-0.175764113752459</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.08135496246591677</v>
+        <v>0.08838180351865428</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.08660388800781436</v>
+        <v>0.09079830990108008</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.1707606745229496</v>
+        <v>-0.1723404164003763</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.06567072290437015</v>
+        <v>0.07056342165651425</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.1118866433585752</v>
+        <v>0.10907489362096</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.1500041671603659</v>
+        <v>-0.1554312458980336</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.1379775155881708</v>
+        <v>0.134454042027029</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.2229934023889883</v>
+        <v>0.2242906054794415</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.04153091331186797</v>
+        <v>-0.04679695572423043</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.2019467052865603</v>
+        <v>0.2056804208562423</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.2077939812514459</v>
+        <v>0.2169914217876666</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.055558030341763</v>
+        <v>-0.06372308881446051</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.153527353738478</v>
+        <v>0.1516531554152906</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.20075788607694</v>
+        <v>0.200987441476876</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.06744207091013762</v>
+        <v>-0.06912730943033675</v>
       </c>
     </row>
     <row r="28">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-3.930734560540388</v>
+        <v>-3.897019351993991</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>8.907794026909242</v>
+        <v>9.01404383759829</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-7.979794526592039</v>
+        <v>-8.073558254649287</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.1949651113397713</v>
+        <v>0.3463161984312292</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>9.573944076833195</v>
+        <v>9.430238321696701</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-8.996860262533568</v>
+        <v>-8.901096419214143</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-1.191643493503145</v>
+        <v>-1.037985617678006</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>9.837965980334364</v>
+        <v>9.684324154493362</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-7.968050552101142</v>
+        <v>-7.805043202361778</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.8606182257586711</v>
+        <v>0.8788386186780563</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>13.35661670305916</v>
+        <v>13.43204544587697</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-3.111154505290381</v>
+        <v>-3.010087722755606</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>4.556359740241855</v>
+        <v>4.628423864136214</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>13.60141303338563</v>
+        <v>13.52617074209966</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-4.73369372147045</v>
+        <v>-4.764323929716949</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>2.131289097504679</v>
+        <v>2.143640002716755</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>12.84059042017081</v>
+        <v>12.62225507358665</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-4.522537784335727</v>
+        <v>-4.576484264225888</v>
       </c>
     </row>
     <row r="31">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.05683740937345626</v>
+        <v>-0.05670201413608784</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.1279381170184775</v>
+        <v>0.129664895094161</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.1154652942117462</v>
+        <v>-0.1167500505509168</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.002701030096722876</v>
+        <v>0.004860020895358908</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.1332370632292914</v>
+        <v>0.1298612083905955</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.1250555205067602</v>
+        <v>-0.1239381134202546</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.01701591025932398</v>
+        <v>-0.01475998423762618</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.1407001531814254</v>
+        <v>0.1373471055748382</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.1128505249907149</v>
+        <v>-0.1112250742634057</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.01309786628452442</v>
+        <v>0.01320057945469277</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.2000390162849909</v>
+        <v>0.2002211572668504</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.04651801388099791</v>
+        <v>-0.04515742590701512</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.06531138413887577</v>
+        <v>0.06669301300727158</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.1945238534021292</v>
+        <v>0.1938896633692267</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.06854435619713073</v>
+        <v>-0.06816194220628935</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.03108423749035621</v>
+        <v>0.03133276413900397</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.1882012475877057</v>
+        <v>0.183887819615379</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.06588035537826466</v>
+        <v>-0.06677091283693361</v>
       </c>
     </row>
     <row r="34">
